--- a/public/downloads/import-sample.xlsx
+++ b/public/downloads/import-sample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Freelance Projects with Arsalan\Ratepro\RateProAdminCompany\public\downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NOOR\Desktop\RatePro\RatePro-Admin-main\public\downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4305DD48-C8CB-4D79-B1EC-1CDA556BFD6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57CF3864-47F4-44C2-826D-48B0B645ABD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8F365434-4C90-49AA-A3D9-1873C6167E5F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{8F365434-4C90-49AA-A3D9-1873C6167E5F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Name</t>
   </si>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t>Doe@123</t>
+  </si>
+  <si>
+    <t>Categories</t>
+  </si>
+  <si>
+    <t>Employee</t>
   </si>
 </sst>
 </file>
@@ -124,7 +130,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -147,14 +153,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -165,6 +183,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -185,9 +212,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -225,7 +252,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -331,7 +358,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -473,7 +500,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -481,69 +508,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E5B9C82-74C0-4CCE-8D04-3832E6467575}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:F3"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.77734375" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" style="6" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="8" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>9</v>
       </c>
+      <c r="G2" s="6" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -559,5 +593,6 @@
     <hyperlink ref="C2" r:id="rId2" xr:uid="{E769972F-4A06-4122-B621-B73DA0A58386}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>